--- a/public/translations.xlsx
+++ b/public/translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="414">
   <si>
     <t>key</t>
   </si>
@@ -310,7 +310,7 @@
     <t>advantages.cards.0.desc</t>
   </si>
   <si>
-    <t>Высота 18 метров. Позволяет нам работать автономно и без посредников.</t>
+    <t>Высота 18 метров. Позволяет нашим клиентам работать с нами по себестоимости, без лишних переплат.</t>
   </si>
   <si>
     <t>Бийиктиги 18 метр. Өз алдынча жана ортомчуларсыз иштөөгө мүмкүнчүлүк берет.</t>
@@ -470,13 +470,796 @@
   </si>
   <si>
     <t>КЛИНИНГ компаниясы</t>
+  </si>
+  <si>
+    <t>nav.prices</t>
+  </si>
+  <si>
+    <t>Цены и Тарифы</t>
+  </si>
+  <si>
+    <t>Баалар жана Тарифтер</t>
+  </si>
+  <si>
+    <t>seoPrices.title</t>
+  </si>
+  <si>
+    <t>Цены на уборку в Бишкеке — Таза Айым</t>
+  </si>
+  <si>
+    <t>Бишкектеги тазалоо баалары — Таза Айым</t>
+  </si>
+  <si>
+    <t>seoPrices.description</t>
+  </si>
+  <si>
+    <t>Рассчитайте стоимость уборки онлайн. Тарифы на поддерживающую уборку и генеральный клининг.</t>
+  </si>
+  <si>
+    <t>Тазалоо баасын онлайн эсептеңиз. Колдоочу жана генералдык тазалоо тарифтери.</t>
+  </si>
+  <si>
+    <t>prices.heading</t>
+  </si>
+  <si>
+    <t>Наши цены</t>
+  </si>
+  <si>
+    <t>Биздин баалар</t>
+  </si>
+  <si>
+    <t>prices.desc</t>
+  </si>
+  <si>
+    <t>Прозрачное ценообразование. Рассчитайте точную стоимость или выберите удобный абонемент.</t>
+  </si>
+  <si>
+    <t>Ачык баа түзүү. Тазалоонун так баасын эсептеңиз же ыңгайлуу абонементти тандаңыз.</t>
+  </si>
+  <si>
+    <t>home.cta_price_heading</t>
+  </si>
+  <si>
+    <t>Хотите узнать точную стоимость уборки?</t>
+  </si>
+  <si>
+    <t>Тазалоонун так баасын билгиңиз келеби?</t>
+  </si>
+  <si>
+    <t>home.cta_price_desc</t>
+  </si>
+  <si>
+    <t>Воспользуйтесь нашим онлайн-калькулятором или выберите готовый пакет услуг.</t>
+  </si>
+  <si>
+    <t>Биздин онлайн-калькуляторду колдонуңуз же даяр кызмат топтомун тандаңыз.</t>
+  </si>
+  <si>
+    <t>home.cta_price_button</t>
+  </si>
+  <si>
+    <t>subscription.heading</t>
+  </si>
+  <si>
+    <t>Регулярная чистота и Порядок</t>
+  </si>
+  <si>
+    <t>Туруктуу тазалык жана Тартип</t>
+  </si>
+  <si>
+    <t>subscription.desc</t>
+  </si>
+  <si>
+    <t>Выберите удобный формат: абонемент на постоянную уборку или профессиональную организацию пространства.</t>
+  </si>
+  <si>
+    <t>Ыңгайлуу форматты тандаңыз: туруктуу тазалоого абонемент же мейкиндикти кесипкөй уюштуруу.</t>
+  </si>
+  <si>
+    <t>subscription.tab1</t>
+  </si>
+  <si>
+    <t>Поддерживающая уборка</t>
+  </si>
+  <si>
+    <t>Колдоочу тазалоо</t>
+  </si>
+  <si>
+    <t>subscription.tab2</t>
+  </si>
+  <si>
+    <t>Организация пространства</t>
+  </si>
+  <si>
+    <t>Мейкиндикти уюштуруу</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.list_heading</t>
+  </si>
+  <si>
+    <t>Уборка помещений</t>
+  </si>
+  <si>
+    <t>Имараттарды тазалоо</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.list_item1</t>
+  </si>
+  <si>
+    <t>Сухая и влажная уборка</t>
+  </si>
+  <si>
+    <t>Кургак жана нымдуу тазалоо</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.list_item2</t>
+  </si>
+  <si>
+    <t>Протирание пыли</t>
+  </si>
+  <si>
+    <t>Чаң сүртүү</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.list_item3</t>
+  </si>
+  <si>
+    <t>Уборка кухни и поверхностей</t>
+  </si>
+  <si>
+    <t>Ашкананы жана жумушчу беттерди тазалоо</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.list_item4</t>
+  </si>
+  <si>
+    <t>Мытьё посуды (по необходимости)</t>
+  </si>
+  <si>
+    <t>Идиш жуу (керек болсо)</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.list_item5</t>
+  </si>
+  <si>
+    <t>Уборка санузла</t>
+  </si>
+  <si>
+    <t>Сан түйүндөрдү тазалоо</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.list_item6</t>
+  </si>
+  <si>
+    <t>Мытьё полов</t>
+  </si>
+  <si>
+    <t>Пол жуу</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.list_item7</t>
+  </si>
+  <si>
+    <t>Вынос мусора (до 5 кг)</t>
+  </si>
+  <si>
+    <t>Таштанды чыгаруу (5 кг чейин)</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.textiles_heading</t>
+  </si>
+  <si>
+    <t>Работа с текстилем</t>
+  </si>
+  <si>
+    <t>Текстиль менен иштөө</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.textiles_item1</t>
+  </si>
+  <si>
+    <t>Смена постельного белья</t>
+  </si>
+  <si>
+    <t>Төшөнчү алмаштыруу</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.textiles_item2</t>
+  </si>
+  <si>
+    <t>Сбор и сортировка стирки</t>
+  </si>
+  <si>
+    <t>Кирди чогултуу жана сорттоо</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.textiles_item3</t>
+  </si>
+  <si>
+    <t>Глажка одежды (по необходимости)</t>
+  </si>
+  <si>
+    <t>Кийим үтүктөө (керек болсо)</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.important</t>
+  </si>
+  <si>
+    <t>Моющие средства и инвентарь предоставляет заказчик.</t>
+  </si>
+  <si>
+    <t>Жуучу каражаттар жана шаймандар кардар тарабынан берилет.</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.price_heading</t>
+  </si>
+  <si>
+    <t>Стоимость абонемента</t>
+  </si>
+  <si>
+    <t>Абонементтин баасы</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.plan1.time</t>
+  </si>
+  <si>
+    <t>4 часа</t>
+  </si>
+  <si>
+    <t>4 саат</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.plan1.price</t>
+  </si>
+  <si>
+    <t>10 000</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.plan1.label</t>
+  </si>
+  <si>
+    <t>Минимум</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.plan2.time</t>
+  </si>
+  <si>
+    <t>6 часов</t>
+  </si>
+  <si>
+    <t>6 саат</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.plan2.price</t>
+  </si>
+  <si>
+    <t>15 000</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.plan2.label</t>
+  </si>
+  <si>
+    <t>Популярное</t>
+  </si>
+  <si>
+    <t>Популярдуу</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.plan3.time</t>
+  </si>
+  <si>
+    <t>8 часов</t>
+  </si>
+  <si>
+    <t>8 саат</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.plan3.price</t>
+  </si>
+  <si>
+    <t>20 000</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.plan3.label</t>
+  </si>
+  <si>
+    <t>Максимум</t>
+  </si>
+  <si>
+    <t>subscription.maintenance.footer_note</t>
+  </si>
+  <si>
+    <t>* Стоимость абонемента фиксируется после первой поддерживающей уборки, когда специалист оценивает объём и сложность работ.</t>
+  </si>
+  <si>
+    <t>* Абонементтин баасы биринчи колдоочу тазалоодон кийин, адис иштин көлөмүн жана татаалдыгын баалагандан кийин бекитилет.</t>
+  </si>
+  <si>
+    <t>subscription.organization.desc</t>
+  </si>
+  <si>
+    <t>Мы поможем навести порядок и грамотно организовать пространство в вашем доме. Идеально для тех, кто хочет систему хранения, а не просто уборку.</t>
+  </si>
+  <si>
+    <t>Биз үйүңүздө тартип орнотууга жана мейкиндикти туура уюштурууга жардам беребиз. Жөн гана тазалоо эмес, сактоо тутумун каалагандар үчүн идеалдуу.</t>
+  </si>
+  <si>
+    <t>subscription.organization.room1</t>
+  </si>
+  <si>
+    <t>1 комната</t>
+  </si>
+  <si>
+    <t>1 бөлмө</t>
+  </si>
+  <si>
+    <t>subscription.organization.room2</t>
+  </si>
+  <si>
+    <t>2 комнаты</t>
+  </si>
+  <si>
+    <t>2 бөлмө</t>
+  </si>
+  <si>
+    <t>subscription.organization.room3</t>
+  </si>
+  <si>
+    <t>3 комнаты</t>
+  </si>
+  <si>
+    <t>3 бөлмө</t>
+  </si>
+  <si>
+    <t>subscription.organization.room4</t>
+  </si>
+  <si>
+    <t>4 комнаты</t>
+  </si>
+  <si>
+    <t>4 бөлмө</t>
+  </si>
+  <si>
+    <t>subscription.organization.important_heading</t>
+  </si>
+  <si>
+    <t>Важные условия</t>
+  </si>
+  <si>
+    <t>Маанилүү шарттар</t>
+  </si>
+  <si>
+    <t>subscription.organization.condition1</t>
+  </si>
+  <si>
+    <t>Закуп и подбор органайзеров — +10% от суммы заказа.</t>
+  </si>
+  <si>
+    <t>Органайзерлерди сатып алуу жана тандоо — заказдын суммасынан +10%.</t>
+  </si>
+  <si>
+    <t>subscription.organization.condition2</t>
+  </si>
+  <si>
+    <t>Стоимость указана без учёта органайзеров и расходных материалов.</t>
+  </si>
+  <si>
+    <t>Баасы органайзерлерди жана чыгымдалуучу материалдарды эсепке албаганда көрсөтүлгөн.</t>
+  </si>
+  <si>
+    <t>subscription.organization.condition3</t>
+  </si>
+  <si>
+    <t>Для бронирования требуется предоплата 50%.</t>
+  </si>
+  <si>
+    <t>Брондоо үчүн 50% алдын ала төлөө талап кылынат.</t>
+  </si>
+  <si>
+    <t>subscription.organization.condition4</t>
+  </si>
+  <si>
+    <t>Другие зоны рассчитываются по запросу.</t>
+  </si>
+  <si>
+    <t>Башка зоналар суроо-талап боюнча эсептелет.</t>
+  </si>
+  <si>
+    <t>portfolio.tag</t>
+  </si>
+  <si>
+    <t>Наши работы</t>
+  </si>
+  <si>
+    <t>Биздин иштер</t>
+  </si>
+  <si>
+    <t>portfolio.title</t>
+  </si>
+  <si>
+    <t>До и После</t>
+  </si>
+  <si>
+    <t>Тазалоого чейин жана кийин</t>
+  </si>
+  <si>
+    <t>portfolio.desc</t>
+  </si>
+  <si>
+    <t>Выберите пример ниже, чтобы увидеть результат нашей работы. Потяните ползунок.</t>
+  </si>
+  <si>
+    <t>Биздин иштин жыйынтыгын көрүү үчүн төмөнкү мисалды тандаңыз. Слайдерди жылдырыңыз.</t>
+  </si>
+  <si>
+    <t>portfolio.cases.1.title</t>
+  </si>
+  <si>
+    <t>Чистка бассейна</t>
+  </si>
+  <si>
+    <t>Бассейн тазалоо</t>
+  </si>
+  <si>
+    <t>portfolio.cases.1.desc</t>
+  </si>
+  <si>
+    <t>Удаление налета, грибка и грязи со дна и стенок.</t>
+  </si>
+  <si>
+    <t>Түбүндөгү жана дубалдарындагы кеберди, грибокту жана кирди кетирүү.</t>
+  </si>
+  <si>
+    <t>portfolio.cases.2.title</t>
+  </si>
+  <si>
+    <t>Уборка офиса</t>
+  </si>
+  <si>
+    <t>Офис тазалоо</t>
+  </si>
+  <si>
+    <t>portfolio.cases.2.desc</t>
+  </si>
+  <si>
+    <t>Глубокая чистка ковролина и мебели.</t>
+  </si>
+  <si>
+    <t>Ковролинди жана эмеректерди терең тазалоо.</t>
+  </si>
+  <si>
+    <t>portfolio.labelBefore</t>
+  </si>
+  <si>
+    <t>До уборки</t>
+  </si>
+  <si>
+    <t>Тазалоого чейин</t>
+  </si>
+  <si>
+    <t>portfolio.labelAfter</t>
+  </si>
+  <si>
+    <t>После</t>
+  </si>
+  <si>
+    <t>Кийин</t>
+  </si>
+  <si>
+    <t>calculator.tag</t>
+  </si>
+  <si>
+    <t>Цены</t>
+  </si>
+  <si>
+    <t>Баалар</t>
+  </si>
+  <si>
+    <t>calculator.title</t>
+  </si>
+  <si>
+    <t>Рассчитайте стоимость</t>
+  </si>
+  <si>
+    <t>calculator.desc</t>
+  </si>
+  <si>
+    <t>Выберите тип услуги, чтобы получить предварительный расчет</t>
+  </si>
+  <si>
+    <t>Алдын ала эсептөө алуу үчүн кызмат түрүн тандаңыз</t>
+  </si>
+  <si>
+    <t>calculator.tabs.cleaning</t>
+  </si>
+  <si>
+    <t>Уборка</t>
+  </si>
+  <si>
+    <t>Тазалоо</t>
+  </si>
+  <si>
+    <t>calculator.tabs.dry</t>
+  </si>
+  <si>
+    <t>Химчистка</t>
+  </si>
+  <si>
+    <t>Химтазалоо</t>
+  </si>
+  <si>
+    <t>calculator.tabs.facade</t>
+  </si>
+  <si>
+    <t>Фасады</t>
+  </si>
+  <si>
+    <t>Фасаддар</t>
+  </si>
+  <si>
+    <t>calculator.tabs.truck</t>
+  </si>
+  <si>
+    <t>Автовышка</t>
+  </si>
+  <si>
+    <t>calculator.labels.type</t>
+  </si>
+  <si>
+    <t>Тип уборки</t>
+  </si>
+  <si>
+    <t>Тазалоонун түрү</t>
+  </si>
+  <si>
+    <t>calculator.labels.area</t>
+  </si>
+  <si>
+    <t>Площадь помещения</t>
+  </si>
+  <si>
+    <t>Имараттын аянты</t>
+  </si>
+  <si>
+    <t>calculator.labels.sofas</t>
+  </si>
+  <si>
+    <t>Диваны (посадочных мест)</t>
+  </si>
+  <si>
+    <t>Дивандар (орун саны)</t>
+  </si>
+  <si>
+    <t>calculator.labels.sofaPrice</t>
+  </si>
+  <si>
+    <t>~650 сом/место</t>
+  </si>
+  <si>
+    <t>~650 сом/орун</t>
+  </si>
+  <si>
+    <t>calculator.labels.chairs</t>
+  </si>
+  <si>
+    <t>Стулья / Кресла</t>
+  </si>
+  <si>
+    <t>Орундуктар / Креслолор</t>
+  </si>
+  <si>
+    <t>calculator.labels.chairPrice</t>
+  </si>
+  <si>
+    <t>~250 сом/шт</t>
+  </si>
+  <si>
+    <t>~250 сом/даана</t>
+  </si>
+  <si>
+    <t>calculator.labels.facadeArea</t>
+  </si>
+  <si>
+    <t>Площадь фасада/окон</t>
+  </si>
+  <si>
+    <t>Фасад/терезе аянты</t>
+  </si>
+  <si>
+    <t>calculator.labels.truckHours</t>
+  </si>
+  <si>
+    <t>Время аренды (часов)</t>
+  </si>
+  <si>
+    <t>Ижара убактысы (саат)</t>
+  </si>
+  <si>
+    <t>calculator.labels.truckMin</t>
+  </si>
+  <si>
+    <t>Минимальный заказ — 2 часа</t>
+  </si>
+  <si>
+    <t>Минималдуу заказ — 2 саат</t>
+  </si>
+  <si>
+    <t>calculator.special.title</t>
+  </si>
+  <si>
+    <t>Специальное предложение!</t>
+  </si>
+  <si>
+    <t>Атайын сунуш!</t>
+  </si>
+  <si>
+    <t>calculator.special.desc</t>
+  </si>
+  <si>
+    <t>При заказе мойки фасада — автовышка включена в стоимость. Цена всего 100 сом/м².</t>
+  </si>
+  <si>
+    <t>Фасад жууну заказ кылууда — автовышка баасына кирет. Баасы болгону 100 сом/м².</t>
+  </si>
+  <si>
+    <t>calculator.total.approx</t>
+  </si>
+  <si>
+    <t>Примерная стоимость:</t>
+  </si>
+  <si>
+    <t>Болжолдуу баасы:</t>
+  </si>
+  <si>
+    <t>calculator.total.currency</t>
+  </si>
+  <si>
+    <t>сом</t>
+  </si>
+  <si>
+    <t>calculator.total.note</t>
+  </si>
+  <si>
+    <t>*Окончательная стоимость зависит от степени загрязнения и удаленности объекта. Требуется осмотр специалиста.</t>
+  </si>
+  <si>
+    <t>*Акыркы баа булгануу деңгээлине жана объекттин алыстыгына жараша болот. Адистин кароосу талап кылынат.</t>
+  </si>
+  <si>
+    <t>calculator.cta</t>
+  </si>
+  <si>
+    <t>Заказать за ~</t>
+  </si>
+  <si>
+    <t>Заказ кылуу ~</t>
+  </si>
+  <si>
+    <t>calculator.types.wet</t>
+  </si>
+  <si>
+    <t>calculator.types.maintenance</t>
+  </si>
+  <si>
+    <t>Поддерживающая</t>
+  </si>
+  <si>
+    <t>Колдоочу</t>
+  </si>
+  <si>
+    <t>calculator.types.general</t>
+  </si>
+  <si>
+    <t>Генеральная</t>
+  </si>
+  <si>
+    <t>Генералдык</t>
+  </si>
+  <si>
+    <t>calculator.types.renovation</t>
+  </si>
+  <si>
+    <t>После ремонта</t>
+  </si>
+  <si>
+    <t>Ремонттон кийин</t>
+  </si>
+  <si>
+    <t>calculator.types.construction</t>
+  </si>
+  <si>
+    <t>После стройки</t>
+  </si>
+  <si>
+    <t>Курулуштан кийин</t>
+  </si>
+  <si>
+    <t>calculator.types.emergency</t>
+  </si>
+  <si>
+    <t>После ЧП (пожар/потоп)</t>
+  </si>
+  <si>
+    <t>Өзгөчө кырдаалдан кийин</t>
+  </si>
+  <si>
+    <t>services.items.1.title</t>
+  </si>
+  <si>
+    <t>БАЗОВАЯ УБОРКА</t>
+  </si>
+  <si>
+    <t>БАЗАЛЫК ТАЗАЛОО</t>
+  </si>
+  <si>
+    <t>services.items.1.desc</t>
+  </si>
+  <si>
+    <t>Утренняя или вечерняя комплексная уборка помещения («до» или «после» прихода сотрудников). Актуальна для небольших офисов.</t>
+  </si>
+  <si>
+    <t>Имаратты эртең менен же кечинде комплекстүү тазалоо (кызматкерлер келгенге чейин же кеткенден кийин). Чакан кеңселер үчүн актуалдуу.</t>
+  </si>
+  <si>
+    <t>services.items.2.title</t>
+  </si>
+  <si>
+    <t>ПОДДЕРЖИВАЮЩАЯ</t>
+  </si>
+  <si>
+    <t>КОЛДООЧУ</t>
+  </si>
+  <si>
+    <t>services.items.2.desc</t>
+  </si>
+  <si>
+    <t>Специалисты в течение рабочего дня убирают помещение. Идеально для ТЦ, супермаркетов и мест с высокой проходимостью.</t>
+  </si>
+  <si>
+    <t>Адистер жумуш күнү бою имаратты тазалашат. Соода борборлору, супермаркеттер жана адам көп жүргөн жерлер үчүн идеалдуу.</t>
+  </si>
+  <si>
+    <t>services.items.3.title</t>
+  </si>
+  <si>
+    <t>ГЕНЕРАЛЬНАЯ УБОРКА</t>
+  </si>
+  <si>
+    <t>ГЕНЕРАЛДЫК ТАЗАЛОО</t>
+  </si>
+  <si>
+    <t>services.items.3.desc</t>
+  </si>
+  <si>
+    <t>Тщательная чистка всех труднодоступных мест. Рекомендуется проводить раз в несколько месяцев для любого помещения.</t>
+  </si>
+  <si>
+    <t>Бардык жетүүгө кыйын жерлерди кылдат тазалоо. Ар кандай имарат үчүн бир нече айда бир жолу жүргүзүү сунушталат.</t>
+  </si>
+  <si>
+    <t>services.items.4.title</t>
+  </si>
+  <si>
+    <t>ПОСЛЕСТРОИТЕЛЬНАЯ</t>
+  </si>
+  <si>
+    <t>КУРУЛУШТАН КИЙИНКИ</t>
+  </si>
+  <si>
+    <t>services.items.4.desc</t>
+  </si>
+  <si>
+    <t>Удаление пятен краски, клея, строительных растворов и пыли. Используем спец. оборудование и химию.</t>
+  </si>
+  <si>
+    <t>Боёк, клей, курулуш аралашмаларынын тактарын жана чаңды кетирүү. Атайын жабдууларды жана химияны колдонобуз.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -491,6 +1274,15 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans Text&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans Text&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -507,7 +1299,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -515,6 +1307,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1320,6 +2118,1017 @@
         <v>152</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A8"/>

--- a/public/translations.xlsx
+++ b/public/translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="433">
   <si>
     <t>key</t>
   </si>
@@ -1253,6 +1253,63 @@
   </si>
   <si>
     <t>Боёк, клей, курулуш аралашмаларынын тактарын жана чаңды кетирүү. Атайын жабдууларды жана химияны колдонобуз.</t>
+  </si>
+  <si>
+    <t>services.items.1.time</t>
+  </si>
+  <si>
+    <t>1.5-2 часа</t>
+  </si>
+  <si>
+    <t>1.5-2 саат</t>
+  </si>
+  <si>
+    <t>services.items.2.time</t>
+  </si>
+  <si>
+    <t>6-8 часов</t>
+  </si>
+  <si>
+    <t>6-8 саат</t>
+  </si>
+  <si>
+    <t>services.items.3.time</t>
+  </si>
+  <si>
+    <t>12-24 часов</t>
+  </si>
+  <si>
+    <t>12-24 саат</t>
+  </si>
+  <si>
+    <t>services.items.4.time</t>
+  </si>
+  <si>
+    <t>reviews.tag</t>
+  </si>
+  <si>
+    <t>Отзывы</t>
+  </si>
+  <si>
+    <t>Пикирлер</t>
+  </si>
+  <si>
+    <t>reviews.title</t>
+  </si>
+  <si>
+    <t>Что говорят о нас клиенты</t>
+  </si>
+  <si>
+    <t>Кардарларыбыз биз жөнүндө эмне дейт</t>
+  </si>
+  <si>
+    <t>reviews.linkText</t>
+  </si>
+  <si>
+    <t>Смотреть все отзывы в Instagram</t>
+  </si>
+  <si>
+    <t>Бардык пикирлерди Instagram'дан көрүү</t>
   </si>
 </sst>
 </file>
@@ -3129,6 +3186,93 @@
         <v>413</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A8"/>

--- a/public/translations.xlsx
+++ b/public/translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="448">
   <si>
     <t>key</t>
   </si>
@@ -1310,6 +1310,51 @@
   </si>
   <si>
     <t>Бардык пикирлерди Instagram'дан көрүү</t>
+  </si>
+  <si>
+    <t>chemicals.tag</t>
+  </si>
+  <si>
+    <t>Безопасность и Качество</t>
+  </si>
+  <si>
+    <t>Коопсуздук жана Сапат</t>
+  </si>
+  <si>
+    <t>chemicals.title</t>
+  </si>
+  <si>
+    <t>Используем профессиональную химию из Германии</t>
+  </si>
+  <si>
+    <t>Германиядан келген профессионалдык химияны колдонобуз</t>
+  </si>
+  <si>
+    <t>chemicals.desc</t>
+  </si>
+  <si>
+    <t>Мы не экономим на чистоте. В работе используются сертифицированные, гипоаллергенные средства, безопасные для детей и животных.</t>
+  </si>
+  <si>
+    <t>Биз тазалыктан үнөмдөбөйбүз. Ишибизде балдар жана жаныбарлар үчүн коопсуз, сертификатталган, гипоаллергендик каражаттар колдонулат.</t>
+  </si>
+  <si>
+    <t>chemicals.buzil.desc</t>
+  </si>
+  <si>
+    <t>Мировой лидер в области чистоты. Эффективно удаляет загрязнения, не повреждая поверхности.</t>
+  </si>
+  <si>
+    <t>Тазалык тармагындагы дүйнөлүк лидер. Беттерди бузбастан, кирди эффективдүү кетирет.</t>
+  </si>
+  <si>
+    <t>chemicals.kiehl.desc</t>
+  </si>
+  <si>
+    <t>Экологичные средства премиум-класса. Идеальны для ухода за дорогими материалами и напольными покрытиями.</t>
+  </si>
+  <si>
+    <t>Премиум классындагы экологиялык каражаттар. Кымбат материалдарды жана пол жабууларын кароо үчүн идеалдуу.</t>
   </si>
 </sst>
 </file>
@@ -3273,6 +3318,66 @@
         <v>432</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A8"/>

--- a/public/translations.xlsx
+++ b/public/translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="452">
   <si>
     <t>key</t>
   </si>
@@ -913,19 +913,31 @@
     <t>portfolio.cases.2.title</t>
   </si>
   <si>
+    <t>Уборка квартиры</t>
+  </si>
+  <si>
+    <t>Квартира тазалоо</t>
+  </si>
+  <si>
+    <t>portfolio.cases.2.desc</t>
+  </si>
+  <si>
+    <t>Глубокая чистка ковролина и мебели.</t>
+  </si>
+  <si>
+    <t>Ковролинди жана эмеректерди терең тазалоо.</t>
+  </si>
+  <si>
+    <t>portfolio.cases.3.desc</t>
+  </si>
+  <si>
+    <t>Тщательная чистка всех труднодоступных мест</t>
+  </si>
+  <si>
+    <t>portfolio.cases.3.title</t>
+  </si>
+  <si>
     <t>Уборка офиса</t>
-  </si>
-  <si>
-    <t>Офис тазалоо</t>
-  </si>
-  <si>
-    <t>portfolio.cases.2.desc</t>
-  </si>
-  <si>
-    <t>Глубокая чистка ковролина и мебели.</t>
-  </si>
-  <si>
-    <t>Ковролинди жана эмеректерди терең тазалоо.</t>
   </si>
   <si>
     <t>portfolio.labelBefore</t>
@@ -1636,6 +1648,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.25"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -2820,272 +2835,268 @@
       <c r="B109" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>307</v>
-      </c>
+      <c r="C109" s="3"/>
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>310</v>
-      </c>
+      <c r="C110" s="3"/>
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>320</v>
-      </c>
       <c r="C114" s="3" t="s">
-        <v>321</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>334</v>
-      </c>
       <c r="C119" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="C132" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="134">
@@ -3104,190 +3115,196 @@
         <v>378</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>379</v>
+        <v>69</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>380</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B146" s="3" t="s">
+    </row>
+    <row r="147">
+      <c r="A147" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="B147" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
+      <c r="C147" s="3" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>419</v>
-      </c>
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>422</v>
-      </c>
     </row>
     <row r="152">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
+      <c r="A152" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>425</v>
@@ -3297,85 +3314,101 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>429</v>
-      </c>
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B155" s="3" t="s">
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="B156" s="3" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
+      <c r="C156" s="3" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>438</v>
-      </c>
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B161" s="3" t="s">
+    </row>
+    <row r="162">
+      <c r="A162" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="B162" s="3" t="s">
         <v>447</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/public/translations.xlsx
+++ b/public/translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="458">
   <si>
     <t>key</t>
   </si>
@@ -1367,6 +1367,24 @@
   </si>
   <si>
     <t>Премиум классындагы экологиялык каражаттар. Кымбат материалдарды жана пол жабууларын кароо үчүн идеалдуу.</t>
+  </si>
+  <si>
+    <t>video.title</t>
+  </si>
+  <si>
+    <t>Как мы работаем</t>
+  </si>
+  <si>
+    <t>Биздин иш процессибиз</t>
+  </si>
+  <si>
+    <t>video.desc</t>
+  </si>
+  <si>
+    <t>Посмотрите короткое видео о том, как наша команда наводит чистоту и порядок.</t>
+  </si>
+  <si>
+    <t>Командабыздын тазалык жана тартип орнотуп жатканын кыскача видеодон көрүңүз.</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1431,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1422,6 +1440,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2140,7 +2161,7 @@
       <c r="A45" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2236,1179 +2257,1206 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="4" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="4" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="4" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="4" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="4" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="4" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="4" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="4" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="4" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="4" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="4" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="4" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
     </row>
     <row r="102">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="4" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="4" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="4" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="4" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="4" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="4" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C109" s="3"/>
+      <c r="C109" s="4"/>
     </row>
     <row r="110">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C110" s="3"/>
+      <c r="C110" s="4"/>
     </row>
     <row r="111">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="4" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="4" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="4" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="4" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="4" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="4" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="4" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="4" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="4" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="4" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="4" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="4" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="4" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="4" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="4" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="4" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="4" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="4" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="4" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="4" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="4" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="4" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="4" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="4" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="4" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="4" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="4" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="4" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="4" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="4" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="4" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="4" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="4" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="4" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="4" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
     </row>
     <row r="150">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="4" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="4" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="4" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="4" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
     </row>
     <row r="155">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="4" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="4" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="4" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
     </row>
     <row r="159">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="4" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="4" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="4" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="4" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="4" t="s">
         <v>451</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/public/translations.xlsx
+++ b/public/translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="459">
   <si>
     <t>key</t>
   </si>
@@ -1367,6 +1367,9 @@
   </si>
   <si>
     <t>Премиум классындагы экологиялык каражаттар. Кымбат материалдарды жана пол жабууларын кароо үчүн идеалдуу.</t>
+  </si>
+  <si>
+    <t>chemicals.grass.desc</t>
   </si>
   <si>
     <t>video.title</t>
@@ -3433,30 +3436,36 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
+      <c r="A164" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/public/translations.xlsx
+++ b/public/translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="460">
   <si>
     <t>key</t>
   </si>
@@ -1370,6 +1370,9 @@
   </si>
   <si>
     <t>chemicals.grass.desc</t>
+  </si>
+  <si>
+    <t>Grass Professional — профессиональные моющие и чистящие средства для клининга, HoReCa и промышленности. Эффективность, безопасность и стабильный результат для ежедневной работы.</t>
   </si>
   <si>
     <t>video.title</t>
@@ -3440,7 +3443,7 @@
         <v>452</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>451</v>
@@ -3448,24 +3451,24 @@
     </row>
     <row r="165">
       <c r="A165" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
